--- a/data/instruments/instruments.xlsx
+++ b/data/instruments/instruments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="instruments" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,10 @@
     <t>mapping of questions of the survey instrument and variables of the data set</t>
   </si>
   <si>
-    <t>Questionnaire of first wave of DZHW Graduate Panel 2009</t>
-  </si>
-  <si>
     <t>Highly qualified and on the way</t>
+  </si>
+  <si>
+    <t>Questionnaire of DZHW Graduate Panel 2009 - first wave</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
     <col min="1" max="1" width="13.42578125"/>
     <col min="2" max="2" width="16.42578125"/>
     <col min="3" max="3" width="67.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1"/>
+    <col min="4" max="4" width="53.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
     <col min="6" max="6" width="50.28515625" style="6" customWidth="1"/>
     <col min="7" max="14" width="16.42578125"/>
@@ -666,13 +666,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/instruments/instruments.xlsx
+++ b/data/instruments/instruments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="64">
   <si>
     <t>number</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Questionnaire of DZHW Graduate Panel 2009 - first wave</t>
+  </si>
+  <si>
+    <t>annotations.de</t>
+  </si>
+  <si>
+    <t>annotations.en</t>
   </si>
 </sst>
 </file>
@@ -614,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +638,7 @@
     <col min="15" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -654,8 +660,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>

--- a/data/instruments/instruments.xlsx
+++ b/data/instruments/instruments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
   <si>
     <t>number</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>annotations.en</t>
+  </si>
+  <si>
+    <t>subtitle.de</t>
+  </si>
+  <si>
+    <t>subtitle.en</t>
   </si>
 </sst>
 </file>
@@ -620,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +644,7 @@
     <col min="15" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,8 +672,14 @@
       <c r="I1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>

--- a/data/instruments/instruments.xlsx
+++ b/data/instruments/instruments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="68">
   <si>
     <t>number</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>subtitle.en</t>
+  </si>
+  <si>
+    <t>Fragebogen des DZHW-Absolventenpanels 2009 - zweite Welle</t>
+  </si>
+  <si>
+    <t>Questionnaire of DZHW Graduate Panel 2009 - second wave</t>
   </si>
 </sst>
 </file>
@@ -626,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,6 +705,20 @@
         <v>60</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/instruments/instruments.xlsx
+++ b/data/instruments/instruments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
   <si>
     <t>number</t>
   </si>
@@ -213,12 +213,6 @@
   </si>
   <si>
     <t>subtitle.en</t>
-  </si>
-  <si>
-    <t>Fragebogen des DZHW-Absolventenpanels 2009 - zweite Welle</t>
-  </si>
-  <si>
-    <t>Questionnaire of DZHW Graduate Panel 2009 - second wave</t>
   </si>
 </sst>
 </file>
@@ -632,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,20 +699,6 @@
         <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/instruments/instruments.xlsx
+++ b/data/instruments/instruments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="instruments" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>number</t>
   </si>
@@ -86,16 +86,10 @@
     <t>Question Flow</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>grafische Darstellung des durch Filterfragen gesteuerten Befragungsablaufs</t>
   </si>
   <si>
     <t>Zuordnung zwischen Fragen des Erhebungsinstrumentes und Variablen des Datensatzes</t>
-  </si>
-  <si>
-    <t>title</t>
   </si>
   <si>
     <t>language</t>
@@ -282,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -312,9 +306,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -628,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -667,16 +658,16 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -690,13 +681,13 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -710,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,13 +712,12 @@
     <col min="1" max="1" width="50.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="10.5703125"/>
+    <col min="4" max="4" width="33.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -737,25 +727,22 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -763,25 +750,22 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -789,25 +773,22 @@
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -815,663 +796,576 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="13" t="s">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="F29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="F30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="F31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="3">
         <v>4</v>
       </c>
     </row>

--- a/data/instruments/instruments.xlsx
+++ b/data/instruments/instruments.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="125">
   <si>
     <t>number</t>
   </si>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t>Zuordnung zw. Fragen des Erhebungsinstrumentes u. Variablen des Datensatzes (2. Befragungswelle, Vertiefungsbefragung Mobilität)</t>
-  </si>
-  <si>
-    <t>title</t>
   </si>
 </sst>
 </file>
@@ -972,10 +969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,11 +981,11 @@
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="32" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="10.5703125"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1005,16 +1002,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -1030,15 +1024,14 @@
       <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -1054,15 +1047,14 @@
       <c r="E3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -1078,15 +1070,14 @@
       <c r="E4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1102,15 +1093,14 @@
       <c r="E5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -1126,15 +1116,14 @@
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>84</v>
       </c>
@@ -1150,15 +1139,14 @@
       <c r="E7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>115</v>
       </c>
@@ -1174,15 +1162,14 @@
       <c r="E8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="2">
+      <c r="G8" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>101</v>
       </c>
@@ -1198,15 +1185,14 @@
       <c r="E9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
@@ -1222,15 +1208,14 @@
       <c r="E10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>118</v>
       </c>
@@ -1246,15 +1231,14 @@
       <c r="E11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="6">
+      <c r="G11" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>85</v>
       </c>
@@ -1270,15 +1254,14 @@
       <c r="E12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>104</v>
       </c>
@@ -1294,15 +1277,14 @@
       <c r="E13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>86</v>
       </c>
@@ -1318,15 +1300,14 @@
       <c r="E14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>107</v>
       </c>
@@ -1342,15 +1323,14 @@
       <c r="E15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>97</v>
       </c>
@@ -1366,15 +1346,14 @@
       <c r="E16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="F16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>87</v>
       </c>
@@ -1390,15 +1369,14 @@
       <c r="E17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="F17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>110</v>
       </c>
@@ -1414,15 +1392,14 @@
       <c r="E18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="F18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>99</v>
       </c>
@@ -1438,15 +1415,14 @@
       <c r="E19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="F19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1460,15 +1436,14 @@
         <v>26</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1482,15 +1457,14 @@
         <v>35</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1504,15 +1478,14 @@
         <v>36</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="F22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -1526,15 +1499,14 @@
         <v>46</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
@@ -1548,15 +1520,14 @@
         <v>43</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="F24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -1570,15 +1541,14 @@
         <v>43</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="F25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -1592,15 +1562,14 @@
         <v>37</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="F26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
@@ -1614,15 +1583,14 @@
         <v>37</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="F27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -1636,15 +1604,14 @@
         <v>37</v>
       </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="F28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
@@ -1658,15 +1625,14 @@
         <v>37</v>
       </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="F29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>44</v>
       </c>
@@ -1680,15 +1646,14 @@
         <v>83</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="F30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
@@ -1702,15 +1667,14 @@
         <v>83</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="F31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -1724,15 +1688,14 @@
         <v>83</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="F32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -1746,15 +1709,14 @@
         <v>28</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="F33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -1768,15 +1730,14 @@
         <v>42</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="F34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -1790,15 +1751,14 @@
         <v>42</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="F35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>41</v>
       </c>
@@ -1812,15 +1772,14 @@
         <v>42</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="F36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -1834,15 +1793,14 @@
         <v>30</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="F37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -1856,15 +1814,14 @@
         <v>30</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="F38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
@@ -1878,15 +1835,14 @@
         <v>30</v>
       </c>
       <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="F39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
@@ -1900,15 +1856,14 @@
         <v>30</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="F40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -1922,15 +1877,14 @@
         <v>82</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="F41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
@@ -1944,15 +1898,14 @@
         <v>82</v>
       </c>
       <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="F42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -1966,15 +1919,14 @@
         <v>82</v>
       </c>
       <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="F43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
@@ -1988,15 +1940,14 @@
         <v>40</v>
       </c>
       <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="F44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>39</v>
       </c>
@@ -2010,15 +1961,14 @@
         <v>40</v>
       </c>
       <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="F45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>39</v>
       </c>
@@ -2032,15 +1982,14 @@
         <v>40</v>
       </c>
       <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="4">
+      <c r="F46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
@@ -2054,11 +2003,10 @@
         <v>40</v>
       </c>
       <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47">
+      <c r="F47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47">
         <v>5</v>
       </c>
     </row>
